--- a/src/Test Data/TestData.xlsx
+++ b/src/Test Data/TestData.xlsx
@@ -4,22 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
-  <si>
-    <t>Test Case Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>UserName</t>
   </si>
@@ -33,73 +31,61 @@
     <t>Test@123</t>
   </si>
   <si>
-    <t>Browser</t>
-  </si>
-  <si>
     <t>Product Type</t>
   </si>
   <si>
-    <t>Product Number</t>
-  </si>
-  <si>
     <t>Accessories</t>
   </si>
   <si>
-    <t>Product 1</t>
-  </si>
-  <si>
-    <t>First Name</t>
-  </si>
-  <si>
-    <t>Last Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Phone</t>
-  </si>
-  <si>
-    <t>07777777777</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
-    <t>Framework_001</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Latha</t>
-  </si>
-  <si>
-    <t>Annegowda</t>
-  </si>
-  <si>
     <t>Nenapu Nilaya, Hassan</t>
   </si>
   <si>
     <t>Hassan</t>
   </si>
   <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>lathaa.hsn@gmail.com</t>
+    <t>Run mode</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Full name</t>
+  </si>
+  <si>
+    <t>Latha A</t>
+  </si>
+  <si>
+    <t>Mobile Number</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>Faltno</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Landmark</t>
+  </si>
+  <si>
+    <t>Shantii nagar</t>
+  </si>
+  <si>
+    <t>Town</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
   </si>
 </sst>
 </file>
@@ -503,127 +489,117 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9900449238</v>
+      </c>
+      <c r="G2" s="1">
+        <v>573201</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>20</v>
+      <c r="M2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"Accessories, iMacs, iPads, iPhones"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2">
-      <formula1>"Product 1, Product 2, Product 3, Product 4"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="M2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
